--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>SlNo</t>
   </si>
@@ -39,12 +39,45 @@
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
+  <si>
+    <t>04.06.2021</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Task Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camunda modeller - task </t>
+  </si>
+  <si>
+    <t>Java training</t>
+  </si>
+  <si>
+    <t>BPMN Task</t>
+  </si>
+  <si>
+    <t>BPMN review</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>BPMN process - camunda modeller flow process</t>
+  </si>
+  <si>
+    <t>Insert, search, delete, print all program</t>
+  </si>
+  <si>
+    <t>Practicing previous topics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -232,11 +265,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -255,6 +325,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -316,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -351,7 +437,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -528,30 +614,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="21">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -560,7 +646,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -577,1003 +663,1052 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6">
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B145" s="4"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="6"/>
+    <row r="145" spans="2:6">
+      <c r="B145" s="2"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1581,23 +1716,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="21">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1741,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1623,994 +1758,994 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" ht="15.75" thickBot="1">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>SlNo</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>Practicing previous topics</t>
+  </si>
+  <si>
+    <t>BPMN Oveview</t>
+  </si>
+  <si>
+    <t>BPMN - Camunda diagram overview</t>
+  </si>
+  <si>
+    <t>Java program</t>
+  </si>
+  <si>
+    <t>Camunda</t>
+  </si>
+  <si>
+    <t>BPMN - Cloud kitchen task</t>
+  </si>
+  <si>
+    <t>07.06.2021</t>
   </si>
 </sst>
 </file>
@@ -306,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -317,6 +335,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,10 +355,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,9 +362,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,26 +647,26 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -664,10 +686,10 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="14">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -676,103 +698,146 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="14">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="11">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2"/>
@@ -1706,9 +1771,10 @@
       <c r="F146" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1733,13 +1799,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>SlNo</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>07.06.2021</t>
+  </si>
+  <si>
+    <t>08.06.2021</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,7 +650,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,7 +766,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -780,7 +783,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="2">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="19"/>
@@ -795,7 +798,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="2">
+      <c r="B11" s="10">
         <v>3</v>
       </c>
       <c r="C11" s="19"/>
@@ -810,7 +813,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="2">
+      <c r="B12" s="10">
         <v>4</v>
       </c>
       <c r="C12" s="19"/>
@@ -825,7 +828,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="2">
+      <c r="B13" s="10">
         <v>5</v>
       </c>
       <c r="C13" s="20"/>
@@ -840,18 +843,36 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="2"/>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>SlNo</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>08.06.2021</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Hash table program</t>
+  </si>
+  <si>
+    <t>Java Training</t>
+  </si>
+  <si>
+    <t>HTML - Login, Registration, Index Page</t>
+  </si>
+  <si>
+    <t>Java, HTML, CSS</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -717,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="11">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -779,7 +797,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="14">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -794,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="14">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -846,7 +864,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -856,14 +874,14 @@
         <v>10</v>
       </c>
       <c r="F14" s="11">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -871,88 +889,122 @@
         <v>19</v>
       </c>
       <c r="F15" s="11">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="10">
+        <v>3</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="2"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="2"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="2"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="2"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="2"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="2"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="2"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="2"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1792,10 +1844,12 @@
       <c r="F146" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -657,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -955,7 +955,9 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="10"/>
+      <c r="B20" s="10">
+        <v>4</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -657,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -955,9 +955,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="10">
-        <v>4</v>
-      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>SlNo</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>10.06.2021</t>
+  </si>
+  <si>
+    <t>BPMN Training</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML Task - link 5 html pages </t>
   </si>
 </sst>
 </file>
@@ -657,7 +669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,7 +680,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -955,32 +967,66 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="10">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="10">
+        <v>3</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="14"/>
+      <c r="B23" s="10">
+        <v>4</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="10"/>
@@ -1844,7 +1890,8 @@
       <c r="F146" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C20:C23"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C13"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -379,6 +379,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,15 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,7 +669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,7 +680,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -693,13 +693,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -722,7 +722,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -739,7 +739,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -784,7 +784,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -816,7 +816,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -846,7 +846,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -893,7 +893,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -940,7 +940,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -987,7 +987,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -1921,13 +1921,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>SlNo</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t xml:space="preserve">HTML Task - link 5 html pages </t>
+  </si>
+  <si>
+    <t>11.06.2021</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>HTML, CSS</t>
+  </si>
+  <si>
+    <t>Practising to design web pages</t>
   </si>
 </sst>
 </file>
@@ -669,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1029,193 +1044,211 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2"/>
@@ -1890,7 +1923,8 @@
       <c r="F146" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C4:C8"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>SlNo</t>
   </si>
@@ -137,6 +137,27 @@
   </si>
   <si>
     <t>Practising to design web pages</t>
+  </si>
+  <si>
+    <t>14.06.2021</t>
+  </si>
+  <si>
+    <t>Servlet concept with HTML page</t>
+  </si>
+  <si>
+    <t>servlet</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Apache installation</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Clarification</t>
   </si>
 </sst>
 </file>
@@ -372,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -397,10 +418,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,7 +708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -754,7 +778,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -769,7 +793,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -784,7 +808,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -799,7 +823,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -831,7 +855,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,7 +870,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -861,7 +885,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -876,7 +900,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -908,7 +932,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -923,7 +947,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -955,7 +979,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -970,7 +994,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1026,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,7 +1041,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1056,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1088,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1076,399 +1100,433 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="14">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="10"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="14"/>
+      <c r="B27" s="10">
+        <v>2</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="14"/>
+      <c r="B28" s="10">
+        <v>3</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="14"/>
+      <c r="B29" s="10">
+        <v>4</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="2"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="2"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="2"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="2"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="2"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="2"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="2"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="2"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="2"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="2"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="14"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="2"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="2"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="14"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="2"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="2"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="14"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="2"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="14"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="2"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="14"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="2"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="2"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="14"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="2"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="14"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="2"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="14"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="2"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="14"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="2"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="2"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="2"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="2"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="2"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="2"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="2"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="2"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="2"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="2"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="2"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="2"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="2"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="2"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="2"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="2"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="2"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="2"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="2"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="2"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="2"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="2"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="2"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="2"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="2"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="2"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="2"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="2"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="2"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="2"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="2"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="2"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -1923,7 +1981,8 @@
       <c r="F146" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C26:C29"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B2:F2"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>SlNo</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Clarification</t>
+  </si>
+  <si>
+    <t>15.06.2021</t>
   </si>
 </sst>
 </file>
@@ -415,13 +418,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,9 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -719,7 +722,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,13 +735,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -761,7 +764,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -823,7 +826,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -838,7 +841,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -900,7 +903,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -915,7 +918,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -947,7 +950,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -962,7 +965,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -994,7 +997,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,7 +1012,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1056,7 +1059,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1074,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1088,7 +1091,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1103,7 +1106,7 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1136,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1150,7 +1153,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1163,8 +1166,12 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="10"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="14"/>
     </row>
@@ -2014,13 +2021,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>SlNo</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>15.06.2021</t>
+  </si>
+  <si>
+    <t>Practise</t>
+  </si>
+  <si>
+    <t>Java Revision Training</t>
+  </si>
+  <si>
+    <t>16.06.2021</t>
+  </si>
+  <si>
+    <t>practising related to revision</t>
   </si>
 </sst>
 </file>
@@ -711,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,7 +734,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,36 +1177,68 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="10"/>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="14">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="10"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="14"/>
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="14">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="10"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="10"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="10">
+        <v>2</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="14">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="10"/>
@@ -1988,7 +2032,9 @@
       <c r="F146" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C20:C23"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -436,10 +436,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,7 +734,7 @@
   <dimension ref="B1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,7 +793,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -808,7 +808,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -915,7 +915,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="15" t="s">
         <v>42</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1229,7 +1229,7 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="14">
-        <v>4.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -2033,16 +2033,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>SlNo</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>practising related to revision</t>
+  </si>
+  <si>
+    <t>17.06.2021</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>BPMN</t>
+  </si>
+  <si>
+    <t>Java, BPMN, HTML</t>
   </si>
 </sst>
 </file>
@@ -433,15 +445,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,6 +453,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -747,13 +759,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -776,7 +788,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -793,7 +805,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -808,7 +820,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -823,7 +835,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,7 +850,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -853,7 +865,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -870,7 +882,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,7 +897,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -900,7 +912,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -915,7 +927,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -930,7 +942,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -947,7 +959,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -962,7 +974,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -977,7 +989,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -994,7 +1006,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1009,7 +1021,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1036,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1041,7 +1053,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1068,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1071,7 +1083,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1086,7 +1098,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1103,7 +1115,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1118,7 +1130,7 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1135,7 +1147,7 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1150,7 +1162,7 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="15" t="s">
         <v>42</v>
       </c>
@@ -1165,7 +1177,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1180,7 +1192,7 @@
       <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1197,7 +1209,7 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1212,7 +1224,7 @@
       <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1229,7 +1241,7 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1242,24 +1254,44 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="10"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="14"/>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="10"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="10"/>
@@ -2033,16 +2065,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C20:C23"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C20:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2067,13 +2099,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>SlNo</t>
   </si>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>Java, BPMN, HTML</t>
+  </si>
+  <si>
+    <t>18.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM </t>
+  </si>
+  <si>
+    <t>JBPM</t>
+  </si>
+  <si>
+    <t>Installation, setup and practise</t>
+  </si>
+  <si>
+    <t>Team meet and ref</t>
   </si>
 </sst>
 </file>
@@ -420,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -445,6 +460,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,13 +479,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,13 +783,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -788,7 +812,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -805,7 +829,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -820,7 +844,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -835,7 +859,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -850,7 +874,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -865,7 +889,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -882,7 +906,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -897,7 +921,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -912,7 +936,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -927,7 +951,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -942,7 +966,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -959,7 +983,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,7 +998,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -989,7 +1013,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1006,7 +1030,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1021,7 +1045,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1060,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1053,7 +1077,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1092,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1083,7 +1107,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1122,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1115,7 +1139,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1130,7 +1154,7 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1147,7 +1171,7 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1162,7 +1186,7 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="15" t="s">
         <v>42</v>
       </c>
@@ -1177,7 +1201,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1192,7 +1216,7 @@
       <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1209,7 +1233,7 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1224,7 +1248,7 @@
       <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1241,7 +1265,7 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1253,8 +1277,10 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="10"/>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1268,8 +1294,10 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="10"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="10">
+        <v>2</v>
+      </c>
+      <c r="C35" s="17"/>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1281,8 +1309,10 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="10"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="10">
+        <v>3</v>
+      </c>
+      <c r="C36" s="18"/>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1294,32 +1324,66 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="10"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="14"/>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="10"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="14"/>
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="10"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="14"/>
+      <c r="B39" s="10">
+        <v>3</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="14">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="10"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="14"/>
+      <c r="B40" s="10">
+        <v>4</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="10"/>
@@ -2064,17 +2128,19 @@
       <c r="F146" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2099,13 +2165,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>SlNo</t>
   </si>
@@ -200,6 +200,30 @@
   </si>
   <si>
     <t>Team meet and ref</t>
+  </si>
+  <si>
+    <t>21.06.2021</t>
+  </si>
+  <si>
+    <t>Camunda Modeller</t>
+  </si>
+  <si>
+    <t>Camunda Modeller - User task</t>
+  </si>
+  <si>
+    <t>Java, Camunda</t>
+  </si>
+  <si>
+    <t>19.06.2021</t>
+  </si>
+  <si>
+    <t>Training, Setup, Task</t>
+  </si>
+  <si>
+    <t>20.06.2021</t>
+  </si>
+  <si>
+    <t>Training and Service Task</t>
   </si>
 </sst>
 </file>
@@ -435,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -461,6 +485,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -478,14 +511,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -767,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F146"/>
+  <dimension ref="B1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,13 +813,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -812,7 +842,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -829,7 +859,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -844,7 +874,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -859,7 +889,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,7 +904,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -889,7 +919,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -906,7 +936,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,7 +951,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -936,7 +966,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -951,7 +981,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -966,7 +996,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -983,7 +1013,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -998,7 +1028,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1043,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1030,7 +1060,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1075,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1090,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1077,7 +1107,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1122,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1107,7 +1137,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1152,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1139,7 +1169,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1154,7 +1184,7 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1171,7 +1201,7 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1186,7 +1216,7 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="15" t="s">
         <v>42</v>
       </c>
@@ -1201,7 +1231,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1216,7 +1246,7 @@
       <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1233,7 +1263,7 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1248,7 +1278,7 @@
       <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1265,7 +1295,7 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1280,7 +1310,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1297,7 +1327,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1342,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1327,7 +1357,7 @@
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1344,7 +1374,7 @@
       <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1359,7 +1389,7 @@
       <c r="B39" s="10">
         <v>3</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1374,7 +1404,7 @@
       <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,74 +1416,120 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="10"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="14"/>
+      <c r="B41" s="25">
+        <v>1</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="25">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="10"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="14"/>
+      <c r="B42" s="26">
+        <v>2</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="14">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="10"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="14"/>
+      <c r="B43" s="26">
+        <v>1</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="14">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="10"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="14"/>
+      <c r="B44" s="10">
+        <v>2</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="10"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="14"/>
+      <c r="B45" s="10">
+        <v>3</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="10"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="10"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="10"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="14"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="10"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="14"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="10"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="14"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="10"/>
@@ -1631,49 +1707,49 @@
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="10"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="10"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="10"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="10"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="10"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="10"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="10"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2071,64 +2147,16 @@
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6">
-      <c r="B139" s="2"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="2:6">
-      <c r="B140" s="2"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="2:6">
-      <c r="B141" s="2"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="2:6">
-      <c r="B142" s="2"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="2:6">
-      <c r="B143" s="2"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="2:6">
-      <c r="B144" s="2"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="2:6">
-      <c r="B145" s="2"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B146" s="4"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="6"/>
+    <row r="139" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="B2:F2"/>
@@ -2165,13 +2193,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>SlNo</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Training and Service Task</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>Camunda Task and Revision</t>
   </si>
 </sst>
 </file>
@@ -484,14 +490,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,6 +505,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,12 +521,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -800,7 +806,7 @@
   <dimension ref="B1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="C46" sqref="C46:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -813,13 +819,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -842,7 +848,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -859,7 +865,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -874,7 +880,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -889,7 +895,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,7 +910,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -919,7 +925,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -936,7 +942,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,7 +957,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -966,7 +972,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -981,7 +987,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,7 +1002,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1013,7 +1019,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1034,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1049,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1060,7 +1066,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1081,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1096,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1107,7 +1113,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1128,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1143,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1158,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1169,7 +1175,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1184,7 +1190,7 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1201,7 +1207,7 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1216,7 +1222,7 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="15" t="s">
         <v>42</v>
       </c>
@@ -1231,7 +1237,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1246,7 +1252,7 @@
       <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1263,7 +1269,7 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1278,7 +1284,7 @@
       <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1295,7 +1301,7 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1310,7 +1316,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1327,7 +1333,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1348,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="21"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1363,7 @@
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1374,7 +1380,7 @@
       <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1395,7 @@
       <c r="B39" s="10">
         <v>3</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1404,7 +1410,7 @@
       <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1416,10 +1422,10 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="25">
+      <c r="B41" s="16">
         <v>1</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1428,15 +1434,15 @@
       <c r="E41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="16">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="26">
+      <c r="B42" s="17">
         <v>2</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="16" t="s">
         <v>66</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1450,10 +1456,10 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="26">
+      <c r="B43" s="17">
         <v>1</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1470,7 +1476,7 @@
       <c r="B44" s="10">
         <v>2</v>
       </c>
-      <c r="C44" s="20"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
@@ -1485,7 +1491,7 @@
       <c r="B45" s="10">
         <v>3</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1497,32 +1503,66 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="10"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="B46" s="10">
+        <v>1</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="10"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="10">
+        <v>2</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="10"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="B48" s="10">
+        <v>3</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="10"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="B49" s="10">
+        <v>4</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="10"/>
@@ -2155,7 +2195,8 @@
       <c r="F139" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="C46:C49"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="C34:C36"/>
@@ -2193,13 +2234,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
   <si>
     <t>SlNo</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>Camunda Task and Revision</t>
+  </si>
+  <si>
+    <t>24.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task </t>
+  </si>
+  <si>
+    <t>25.06.2021</t>
+  </si>
+  <si>
+    <t>26.06.2021</t>
   </si>
 </sst>
 </file>
@@ -465,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -484,9 +496,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +531,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -805,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C49"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,18 +832,18 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -840,7 +858,7 @@
       <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="27" t="s">
         <v>3</v>
       </c>
     </row>
@@ -848,7 +866,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -865,7 +883,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -880,7 +898,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -895,7 +913,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,7 +928,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -925,7 +943,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -934,7 +952,7 @@
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>1.3</v>
       </c>
     </row>
@@ -942,14 +960,14 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -957,14 +975,14 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>1</v>
       </c>
     </row>
@@ -972,14 +990,14 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>1</v>
       </c>
     </row>
@@ -987,14 +1005,14 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1002,7 +1020,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1019,7 +1037,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,14 +1052,14 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1049,7 +1067,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1058,7 +1076,7 @@
       <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1066,14 +1084,14 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1081,14 +1099,14 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1096,7 +1114,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1105,7 +1123,7 @@
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1113,14 +1131,14 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1128,14 +1146,14 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="11">
         <v>2.5</v>
       </c>
     </row>
@@ -1143,14 +1161,14 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1158,7 +1176,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1175,14 +1193,14 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1190,7 +1208,7 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1199,7 +1217,7 @@
       <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1207,14 +1225,14 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1222,14 +1240,14 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="11">
         <v>1.3</v>
       </c>
     </row>
@@ -1237,14 +1255,14 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="11">
         <v>0.3</v>
       </c>
     </row>
@@ -1252,7 +1270,7 @@
       <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1261,7 +1279,7 @@
       <c r="E30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1269,14 +1287,14 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="11">
         <v>5.3</v>
       </c>
     </row>
@@ -1284,7 +1302,7 @@
       <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1293,7 +1311,7 @@
       <c r="E32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1301,14 +1319,14 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1316,7 +1334,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1325,7 +1343,7 @@
       <c r="E34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1333,14 +1351,14 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="11">
         <v>1.3</v>
       </c>
     </row>
@@ -1348,14 +1366,14 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="11">
         <v>4.3</v>
       </c>
     </row>
@@ -1363,7 +1381,7 @@
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1372,7 +1390,7 @@
       <c r="E37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1380,14 +1398,14 @@
       <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="11">
         <v>1.3</v>
       </c>
     </row>
@@ -1395,14 +1413,14 @@
       <c r="B39" s="10">
         <v>3</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="11">
         <v>3.3</v>
       </c>
     </row>
@@ -1410,22 +1428,22 @@
       <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="11">
         <v>1.3</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>1</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1434,15 +1452,15 @@
       <c r="E41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="15">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>2</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1451,15 +1469,15 @@
       <c r="E42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="11">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>1</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1468,7 +1486,7 @@
       <c r="E43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="11">
         <v>1.3</v>
       </c>
     </row>
@@ -1476,14 +1494,14 @@
       <c r="B44" s="10">
         <v>2</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1491,14 +1509,14 @@
       <c r="B45" s="10">
         <v>3</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="11">
         <v>6</v>
       </c>
     </row>
@@ -1506,7 +1524,7 @@
       <c r="B46" s="10">
         <v>1</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1523,7 +1541,7 @@
       <c r="B47" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="19"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1556,7 @@
       <c r="B48" s="10">
         <v>3</v>
       </c>
-      <c r="C48" s="19"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,7 +1571,7 @@
       <c r="B49" s="10">
         <v>4</v>
       </c>
-      <c r="C49" s="20"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="1" t="s">
         <v>24</v>
       </c>
@@ -1565,637 +1583,709 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="10"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="B50" s="10">
+        <v>1</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="10"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="B51" s="10">
+        <v>2</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="10"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="B52" s="10">
+        <v>3</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="11">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="10"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="B53" s="10">
+        <v>1</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="11">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="10"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="B54" s="10">
+        <v>2</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="10"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="B55" s="10">
+        <v>3</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="11">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="10"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="B56" s="10">
+        <v>5</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="10"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="B57" s="10">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="10"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="10"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="10"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="10"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="10"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="10"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="10"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="10"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="10"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="10"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="10"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="10"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="10"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="10"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="10"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="10"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="10"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="10"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="3"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="3"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="11"/>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="3"/>
+      <c r="F102" s="11"/>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="3"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="3"/>
+      <c r="F104" s="11"/>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="11"/>
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="11"/>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="3"/>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="3"/>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="3"/>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="3"/>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="3"/>
+      <c r="F118" s="11"/>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="11"/>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="3"/>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="3"/>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="3"/>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="3"/>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="3"/>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="3"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="3"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="3"/>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="3"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="3"/>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="3"/>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="11"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="3"/>
+      <c r="F137" s="11"/>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="3"/>
+      <c r="F138" s="11"/>
     </row>
     <row r="139" spans="2:6" ht="15.75" thickBot="1">
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="6"/>
+      <c r="F139" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C56"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C37:C40"/>
@@ -2234,13 +2324,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>SlNo</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>26.06.2021</t>
+  </si>
+  <si>
+    <t>28.06.2021</t>
   </si>
 </sst>
 </file>
@@ -505,6 +508,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,15 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,7 +816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -823,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -832,18 +835,18 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -858,7 +861,7 @@
       <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -866,7 +869,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -883,7 +886,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -898,7 +901,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -913,7 +916,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,7 +931,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -943,7 +946,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -960,7 +963,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,7 +978,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -990,7 +993,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1005,7 +1008,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1023,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1037,7 +1040,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1055,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1067,7 +1070,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1084,7 +1087,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1102,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1114,7 +1117,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1131,7 +1134,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1149,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1161,7 +1164,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1176,7 +1179,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1193,7 +1196,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1208,7 +1211,7 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1225,7 +1228,7 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1243,7 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="14" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1258,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1270,7 +1273,7 @@
       <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1287,7 +1290,7 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1302,7 +1305,7 @@
       <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1319,7 +1322,7 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="19"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1334,7 +1337,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1351,7 +1354,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1369,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1381,7 +1384,7 @@
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1398,7 +1401,7 @@
       <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="21"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1413,7 +1416,7 @@
       <c r="B39" s="10">
         <v>3</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1428,7 +1431,7 @@
       <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1477,7 +1480,7 @@
       <c r="B43" s="16">
         <v>1</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1494,7 +1497,7 @@
       <c r="B44" s="10">
         <v>2</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
@@ -1509,7 +1512,7 @@
       <c r="B45" s="10">
         <v>3</v>
       </c>
-      <c r="C45" s="19"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1524,7 +1527,7 @@
       <c r="B46" s="10">
         <v>1</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1541,7 +1544,7 @@
       <c r="B47" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1559,7 @@
       <c r="B48" s="10">
         <v>3</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="1" t="s">
         <v>24</v>
       </c>
@@ -1571,7 +1574,7 @@
       <c r="B49" s="10">
         <v>4</v>
       </c>
-      <c r="C49" s="19"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="1" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +1589,7 @@
       <c r="B50" s="10">
         <v>1</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1603,7 +1606,7 @@
       <c r="B51" s="10">
         <v>2</v>
       </c>
-      <c r="C51" s="18"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1621,7 @@
       <c r="B52" s="10">
         <v>3</v>
       </c>
-      <c r="C52" s="19"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
@@ -1633,7 +1636,7 @@
       <c r="B53" s="10">
         <v>1</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -1650,7 +1653,7 @@
       <c r="B54" s="10">
         <v>2</v>
       </c>
-      <c r="C54" s="18"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1668,7 @@
       <c r="B55" s="10">
         <v>3</v>
       </c>
-      <c r="C55" s="18"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="1" t="s">
         <v>35</v>
       </c>
@@ -1680,7 +1683,7 @@
       <c r="B56" s="10">
         <v>5</v>
       </c>
-      <c r="C56" s="19"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="1" t="s">
         <v>71</v>
       </c>
@@ -1709,25 +1712,51 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="10"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="11"/>
+      <c r="B58" s="10">
+        <v>1</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="11">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="10"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="11"/>
+      <c r="B59" s="10">
+        <v>2</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="10"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="11"/>
+      <c r="B60" s="10">
+        <v>3</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="10"/>
@@ -2280,15 +2309,11 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="28"/>
+      <c r="F139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C37:C40"/>
+  <mergeCells count="17">
+    <mergeCell ref="C58:C60"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C4:C8"/>
@@ -2300,6 +2325,11 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C37:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2324,13 +2354,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -518,6 +518,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,15 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,7 +816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -869,7 +869,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -886,7 +886,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -963,7 +963,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1040,7 +1040,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1087,7 +1087,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1134,7 +1134,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1196,7 +1196,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1228,7 +1228,7 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="14" t="s">
         <v>42</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1290,7 +1290,7 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1322,7 +1322,7 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1354,7 +1354,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="21"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1401,7 +1401,7 @@
       <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="B39" s="10">
         <v>3</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="B43" s="16">
         <v>1</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1497,7 +1497,7 @@
       <c r="B44" s="10">
         <v>2</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="B45" s="10">
         <v>3</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="B46" s="10">
         <v>1</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1544,7 +1544,7 @@
       <c r="B47" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="B48" s="10">
         <v>3</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="1" t="s">
         <v>24</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="B49" s="10">
         <v>4</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="1" t="s">
         <v>24</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="B50" s="10">
         <v>1</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="23" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1606,7 +1606,7 @@
       <c r="B51" s="10">
         <v>2</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="C51" s="24"/>
       <c r="D51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="B52" s="10">
         <v>3</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="B53" s="10">
         <v>1</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="23" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -1653,7 +1653,7 @@
       <c r="B54" s="10">
         <v>2</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="B55" s="10">
         <v>3</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="24"/>
       <c r="D55" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="B56" s="10">
         <v>5</v>
       </c>
-      <c r="C56" s="22"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="1" t="s">
         <v>71</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="B58" s="10">
         <v>1</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -1732,7 +1732,7 @@
       <c r="B59" s="10">
         <v>2</v>
       </c>
-      <c r="C59" s="24"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="1" t="s">
         <v>47</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="B60" s="10">
         <v>3</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="1" t="s">
         <v>24</v>
       </c>
@@ -2313,6 +2313,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C37:C40"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="B2:F2"/>
@@ -2329,7 +2330,6 @@
     <mergeCell ref="C53:C56"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C37:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
   <si>
     <t>SlNo</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>28.06.2021</t>
+  </si>
+  <si>
+    <t>29.06.2021</t>
   </si>
 </sst>
 </file>
@@ -816,7 +819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -826,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1760,24 +1763,44 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="10"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="11"/>
+      <c r="C61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="11">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="10"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="11"/>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="11">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="10"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="11"/>
+      <c r="D63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="10"/>
@@ -2313,6 +2336,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="C34:C36"/>
@@ -2329,7 +2353,6 @@
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="C53:C56"/>
     <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="79">
   <si>
     <t>SlNo</t>
   </si>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t>29.06.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>1.07.2021</t>
+  </si>
+  <si>
+    <t>Task, Practise</t>
   </si>
 </sst>
 </file>
@@ -521,6 +530,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -528,15 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,7 +828,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -829,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -872,7 +881,7 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -889,7 +898,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -904,7 +913,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -919,7 +928,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,7 +943,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -949,7 +958,7 @@
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -966,7 +975,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -981,7 +990,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,7 +1005,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1020,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1035,7 @@
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1043,7 +1052,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1058,7 +1067,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1073,7 +1082,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1090,7 +1099,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1105,7 +1114,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1129,7 @@
       <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1137,7 +1146,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1161,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1176,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1191,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1199,7 +1208,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1214,7 +1223,7 @@
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1231,7 +1240,7 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1246,7 +1255,7 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="14" t="s">
         <v>42</v>
       </c>
@@ -1261,7 +1270,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1276,7 +1285,7 @@
       <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1293,7 +1302,7 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1308,7 +1317,7 @@
       <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1325,7 +1334,7 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1340,7 +1349,7 @@
       <c r="B34" s="10">
         <v>1</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1357,7 +1366,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1381,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1396,7 @@
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1404,7 +1413,7 @@
       <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="21"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1428,7 @@
       <c r="B39" s="10">
         <v>3</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1434,7 +1443,7 @@
       <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1483,7 +1492,7 @@
       <c r="B43" s="16">
         <v>1</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1500,7 +1509,7 @@
       <c r="B44" s="10">
         <v>2</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1524,7 @@
       <c r="B45" s="10">
         <v>3</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1530,7 +1539,7 @@
       <c r="B46" s="10">
         <v>1</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1547,7 +1556,7 @@
       <c r="B47" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1562,7 +1571,7 @@
       <c r="B48" s="10">
         <v>3</v>
       </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="1" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1586,7 @@
       <c r="B49" s="10">
         <v>4</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="1" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1601,7 @@
       <c r="B50" s="10">
         <v>1</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1609,7 +1618,7 @@
       <c r="B51" s="10">
         <v>2</v>
       </c>
-      <c r="C51" s="24"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1633,7 @@
       <c r="B52" s="10">
         <v>3</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1648,7 @@
       <c r="B53" s="10">
         <v>1</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -1656,7 +1665,7 @@
       <c r="B54" s="10">
         <v>2</v>
       </c>
-      <c r="C54" s="24"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1680,7 @@
       <c r="B55" s="10">
         <v>3</v>
       </c>
-      <c r="C55" s="24"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="1" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1695,7 @@
       <c r="B56" s="10">
         <v>5</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="1" t="s">
         <v>71</v>
       </c>
@@ -1718,7 +1727,7 @@
       <c r="B58" s="10">
         <v>1</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="23" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -1735,7 +1744,7 @@
       <c r="B59" s="10">
         <v>2</v>
       </c>
-      <c r="C59" s="21"/>
+      <c r="C59" s="24"/>
       <c r="D59" s="1" t="s">
         <v>47</v>
       </c>
@@ -1750,7 +1759,7 @@
       <c r="B60" s="10">
         <v>3</v>
       </c>
-      <c r="C60" s="22"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="1" t="s">
         <v>24</v>
       </c>
@@ -1762,8 +1771,10 @@
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="10"/>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="10">
+        <v>1</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -1777,8 +1788,10 @@
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="10"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="10">
+        <v>2</v>
+      </c>
+      <c r="C62" s="21"/>
       <c r="D62" s="1" t="s">
         <v>7</v>
       </c>
@@ -1790,8 +1803,10 @@
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="10"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="10">
+        <v>3</v>
+      </c>
+      <c r="C63" s="22"/>
       <c r="D63" s="1" t="s">
         <v>47</v>
       </c>
@@ -1803,39 +1818,83 @@
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="10"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="11"/>
+      <c r="B64" s="10">
+        <v>1</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="10"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="11"/>
+      <c r="B65" s="10">
+        <v>2</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="10"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="11"/>
+      <c r="B66" s="10">
+        <v>3</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="11">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="10"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="11"/>
+      <c r="B67" s="10">
+        <v>1</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="10"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="11"/>
+      <c r="B68" s="10">
+        <v>2</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="11">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="10"/>
@@ -2335,7 +2394,11 @@
       <c r="F139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C68"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="C58:C60"/>
@@ -2352,7 +2415,6 @@
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C46:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
   <si>
     <t>SlNo</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Task, Practise</t>
+  </si>
+  <si>
+    <t>02.07.2021</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -838,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1897,25 +1900,51 @@
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="10"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="11"/>
+      <c r="B69" s="10">
+        <v>1</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="10"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="11"/>
+      <c r="B70" s="10">
+        <v>2</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="10"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="11"/>
+      <c r="B71" s="10">
+        <v>3</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" s="11">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="10"/>
@@ -2394,12 +2423,8 @@
       <c r="F139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C43:C45"/>
+  <mergeCells count="21">
+    <mergeCell ref="C69:C71"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="C34:C36"/>
@@ -2415,6 +2440,11 @@
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
   <si>
     <t>SlNo</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>02.07.2021</t>
+  </si>
+  <si>
+    <t>03.07.2021</t>
+  </si>
+  <si>
+    <t>05.07.2021</t>
   </si>
 </sst>
 </file>
@@ -841,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1947,25 +1953,53 @@
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="10"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="11"/>
+      <c r="B72" s="10">
+        <v>1</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="11">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="10"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="11"/>
+      <c r="B73" s="10">
+        <v>1</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="10"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="11"/>
+      <c r="B74" s="10">
+        <v>2</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="10"/>
@@ -2423,7 +2457,8 @@
       <c r="F139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="C58:C60"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
   <si>
     <t>SlNo</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>05.07.2021</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
   </si>
 </sst>
 </file>
@@ -541,10 +544,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -837,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -847,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,7 +910,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -922,7 +925,7 @@
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
@@ -937,7 +940,7 @@
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,7 +955,7 @@
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,7 +987,7 @@
       <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
@@ -999,7 +1002,7 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1017,7 @@
       <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1032,7 @@
       <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1061,7 +1064,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1079,7 @@
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1111,7 @@
       <c r="B18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1126,7 @@
       <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1158,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1173,7 @@
       <c r="B22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1185,7 +1188,7 @@
       <c r="B23" s="10">
         <v>4</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1220,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1249,7 +1252,7 @@
       <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1264,7 +1267,7 @@
       <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="14" t="s">
         <v>42</v>
       </c>
@@ -1279,7 +1282,7 @@
       <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1311,7 +1314,7 @@
       <c r="B31" s="10">
         <v>2</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1343,7 +1346,7 @@
       <c r="B33" s="10">
         <v>2</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1375,7 +1378,7 @@
       <c r="B35" s="10">
         <v>2</v>
       </c>
-      <c r="C35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1393,7 @@
       <c r="B36" s="10">
         <v>3</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1521,7 @@
       <c r="B44" s="10">
         <v>2</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1536,7 @@
       <c r="B45" s="10">
         <v>3</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1565,7 +1568,7 @@
       <c r="B47" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1583,7 @@
       <c r="B48" s="10">
         <v>3</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +1598,7 @@
       <c r="B49" s="10">
         <v>4</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="1" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1630,7 @@
       <c r="B51" s="10">
         <v>2</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1645,7 @@
       <c r="B52" s="10">
         <v>3</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
@@ -1674,7 +1677,7 @@
       <c r="B54" s="10">
         <v>2</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +1692,7 @@
       <c r="B55" s="10">
         <v>3</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="1" t="s">
         <v>35</v>
       </c>
@@ -1704,7 +1707,7 @@
       <c r="B56" s="10">
         <v>5</v>
       </c>
-      <c r="C56" s="22"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="1" t="s">
         <v>71</v>
       </c>
@@ -1800,7 +1803,7 @@
       <c r="B62" s="10">
         <v>2</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="1" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1818,7 @@
       <c r="B63" s="10">
         <v>3</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="1" t="s">
         <v>47</v>
       </c>
@@ -1847,7 +1850,7 @@
       <c r="B65" s="10">
         <v>2</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="1" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1865,7 @@
       <c r="B66" s="10">
         <v>3</v>
       </c>
-      <c r="C66" s="22"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="1" t="s">
         <v>78</v>
       </c>
@@ -1894,7 +1897,7 @@
       <c r="B68" s="10">
         <v>2</v>
       </c>
-      <c r="C68" s="22"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="1" t="s">
         <v>78</v>
       </c>
@@ -1926,7 +1929,7 @@
       <c r="B70" s="10">
         <v>2</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="1" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1944,7 @@
       <c r="B71" s="10">
         <v>3</v>
       </c>
-      <c r="C71" s="22"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="1" t="s">
         <v>78</v>
       </c>
@@ -1990,7 +1993,7 @@
       <c r="B74" s="10">
         <v>2</v>
       </c>
-      <c r="C74" s="22"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="1" t="s">
         <v>47</v>
       </c>
@@ -2002,18 +2005,36 @@
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="10"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="11"/>
+      <c r="B75" s="10">
+        <v>1</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="2"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="11"/>
+      <c r="B76" s="10">
+        <v>2</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="2"/>
@@ -2457,22 +2478,23 @@
       <c r="F139" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C20:C23"/>
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="C53:C56"/>
     <mergeCell ref="C46:C49"/>

--- a/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Vignesh/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -550,6 +550,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,15 +567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -851,7 +851,7 @@
   <dimension ref="B1:F139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -864,13 +864,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -1408,7 +1408,7 @@
       <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1425,7 +1425,7 @@
       <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="B39" s="10">
         <v>3</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="1" t="s">
         <v>57</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="B58" s="10">
         <v>1</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="26" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -1756,7 +1756,7 @@
       <c r="B59" s="10">
         <v>2</v>
       </c>
-      <c r="C59" s="24"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="1" t="s">
         <v>47</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="B60" s="10">
         <v>3</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="1" t="s">
         <v>24</v>
       </c>
@@ -2037,7 +2037,9 @@
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="2"/>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2479,17 +2481,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="C37:C40"/>
@@ -2501,7 +2504,6 @@
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2526,13 +2528,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="21">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
